--- a/data_tool_config.xlsx
+++ b/data_tool_config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dxm/projects/qqdxm/datatool/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dxm/projects/qqdxm/helpers/datatool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85566DC8-6B83-6145-9687-9EE294920208}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4798133E-9991-4E4D-A72E-3AB147731003}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="960" windowWidth="27400" windowHeight="16540" xr2:uid="{21C38307-713F-D144-8A8A-6270FFAFBD1C}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,101 +36,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>advance_mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据源1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加总项目1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,.2f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data['数据源1'][data['数据源1']['列4'] != 0].to_excel('results_trim.xlsx')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>数据列</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>求和</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>均值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中位数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>,.2f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>,.0f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算项目1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算项目2</t>
-  </si>
-  <si>
-    <t>计算项目3</t>
-  </si>
-  <si>
-    <t>计算项目4</t>
-  </si>
-  <si>
-    <t>advance_mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算项目0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算项目5</t>
-  </si>
-  <si>
-    <t>计算项目6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据源1</t>
-  </si>
-  <si>
-    <t>len(data['数据源1'])</t>
-  </si>
-  <si>
-    <t>sum(data['数据源1']['列6']) + sum(data['数据源1']['列7']) +sum(data['数据源1']['列8']) + sum(data['数据源1']['列9']) +sum(data['数据源1']['列10']) + sum(data['数据源1']['列11'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>./data_source_example.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sum(data['数据源1']['列5'])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列1</t>
+    <t>data_source_example.csv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,7 +459,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -512,18 +470,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -537,14 +495,14 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="4" max="4" width="91.83203125" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.1640625" customWidth="1"/>
+    <col min="6" max="6" width="66.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -555,118 +513,45 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="132" customHeight="1">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>23</v>
-      </c>
+    <row r="8" spans="1:6">
+      <c r="F8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data_tool_config.xlsx
+++ b/data_tool_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dxm/projects/qqdxm/helpers/datatool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4798133E-9991-4E4D-A72E-3AB147731003}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B39B542-2364-494F-95AF-7C6CE2680F38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="960" windowWidth="27400" windowHeight="16540" xr2:uid="{21C38307-713F-D144-8A8A-6270FFAFBD1C}"/>
+    <workbookView xWindow="1120" yWindow="960" windowWidth="27400" windowHeight="16540" activeTab="1" xr2:uid="{21C38307-713F-D144-8A8A-6270FFAFBD1C}"/>
   </bookViews>
   <sheets>
     <sheet name="data_sources" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,35 +60,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>加总项目1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>列3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>,.2f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>求和</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>筛选项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>data['数据源1'][data['数据源1']['列4'] != 0].to_excel('results_trim.xlsx')</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数据列</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>data_source_example.csv</t>
+    <t>../../data_source/20200101资产明细-渤海1期.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data['数据源1'][data['数据源1']['剩余本金(元)'] != 0].to_csv('results_trim.csv', encoding='utf-8')</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D58533A-F199-074E-A7E5-D623349EDE04}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -481,7 +465,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -492,10 +476,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D7D3B2-0104-584C-B7B7-2C59D6B7756C}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -516,7 +500,7 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -529,29 +513,12 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="F8" s="1"/>
+    <row r="7" spans="1:6">
+      <c r="F7" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
